--- a/Code/Results/Cases/Case_4_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_199/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9050814387850323</v>
+        <v>0.488581626683299</v>
       </c>
       <c r="C2">
-        <v>0.1202570589956409</v>
+        <v>0.09635221466777466</v>
       </c>
       <c r="D2">
-        <v>0.192089476399147</v>
+        <v>0.07767856683607022</v>
       </c>
       <c r="E2">
-        <v>0.04788997811709272</v>
+        <v>0.1046558067673296</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008267665812297403</v>
+        <v>0.002502358733471786</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6276758643313585</v>
+        <v>1.229678219994042</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8556043882160793</v>
+        <v>0.3093684014095288</v>
       </c>
       <c r="L2">
-        <v>0.1635828985274301</v>
+        <v>0.2166115354202276</v>
       </c>
       <c r="M2">
-        <v>0.2009904850240396</v>
+        <v>0.1549274488537939</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.738091349904948</v>
+        <v>4.971152512444831</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7860329856306976</v>
+        <v>0.4561002489688519</v>
       </c>
       <c r="C3">
-        <v>0.1125220563125922</v>
+        <v>0.09359144670311537</v>
       </c>
       <c r="D3">
-        <v>0.1666513764996012</v>
+        <v>0.07058895358652251</v>
       </c>
       <c r="E3">
-        <v>0.04726560513836731</v>
+        <v>0.1049968585447729</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008310648513276513</v>
+        <v>0.002505151990921543</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6263338458609411</v>
+        <v>1.235913461079477</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7440801338389065</v>
+        <v>0.2769684345009011</v>
       </c>
       <c r="L3">
-        <v>0.1491992898754262</v>
+        <v>0.213987690322476</v>
       </c>
       <c r="M3">
-        <v>0.1758831748899432</v>
+        <v>0.148641733463208</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.685733519347423</v>
+        <v>4.985913092587481</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7132345817577743</v>
+        <v>0.4363306699750069</v>
       </c>
       <c r="C4">
-        <v>0.1077603974531911</v>
+        <v>0.09187076005728301</v>
       </c>
       <c r="D4">
-        <v>0.1511799664043707</v>
+        <v>0.06627036952073695</v>
       </c>
       <c r="E4">
-        <v>0.0469373392746455</v>
+        <v>0.1052417477820153</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008337918969891778</v>
+        <v>0.002506959422347355</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6265066395176682</v>
+        <v>1.240257398778358</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6757614711950879</v>
+        <v>0.2571214955987386</v>
       </c>
       <c r="L4">
-        <v>0.1405519331921496</v>
+        <v>0.2124806973957618</v>
       </c>
       <c r="M4">
-        <v>0.1605872806005983</v>
+        <v>0.1448520100549899</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.658154092683219</v>
+        <v>4.997261807856091</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6836303999930635</v>
+        <v>0.4283186876235163</v>
       </c>
       <c r="C5">
-        <v>0.1058159727549821</v>
+        <v>0.09116314243374291</v>
       </c>
       <c r="D5">
-        <v>0.1449079435708569</v>
+        <v>0.0645191829371754</v>
       </c>
       <c r="E5">
-        <v>0.04681702299974688</v>
+        <v>0.105350480245459</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008349256964918856</v>
+        <v>0.002507719259388627</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6268183215469669</v>
+        <v>1.242157258120027</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6479485470997588</v>
+        <v>0.2490458493446965</v>
       </c>
       <c r="L5">
-        <v>0.1370714755234204</v>
+        <v>0.2118928096694077</v>
       </c>
       <c r="M5">
-        <v>0.1543809780776151</v>
+        <v>0.1433253028421042</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.648013974502589</v>
+        <v>5.002461410806632</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6787180086469391</v>
+        <v>0.426990993268447</v>
       </c>
       <c r="C6">
-        <v>0.1054928348752</v>
+        <v>0.09104525521696871</v>
       </c>
       <c r="D6">
-        <v>0.1438683286878444</v>
+        <v>0.06422892361102583</v>
       </c>
       <c r="E6">
-        <v>0.04679784583316504</v>
+        <v>0.1053690754944405</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008351153338939475</v>
+        <v>0.002507846838535132</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6268843826049206</v>
+        <v>1.242480561489227</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6433315501468115</v>
+        <v>0.2477056390859644</v>
       </c>
       <c r="L6">
-        <v>0.136496087589471</v>
+        <v>0.2117967769356923</v>
       </c>
       <c r="M6">
-        <v>0.1533519578289493</v>
+        <v>0.1430728624256048</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.646395160660347</v>
+        <v>5.00335952883654</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7128350961653496</v>
+        <v>0.436222437621808</v>
       </c>
       <c r="C7">
-        <v>0.107734191656526</v>
+        <v>0.091861242882878</v>
       </c>
       <c r="D7">
-        <v>0.1510952530001362</v>
+        <v>0.06624671729001363</v>
       </c>
       <c r="E7">
-        <v>0.04693566268583993</v>
+        <v>0.1052431779747796</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008338070962079654</v>
+        <v>0.002506969575313105</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.626509878144109</v>
+        <v>1.240282495855844</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6753862806549193</v>
+        <v>0.2570125349372034</v>
       </c>
       <c r="L7">
-        <v>0.140504822503388</v>
+        <v>0.2124726626786568</v>
       </c>
       <c r="M7">
-        <v>0.1605034755544921</v>
+        <v>0.1448313488058979</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.658012955097803</v>
+        <v>4.997329603528215</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8639635458432622</v>
+        <v>0.4773461968112258</v>
       </c>
       <c r="C8">
-        <v>0.1175920235501877</v>
+        <v>0.0954056095900242</v>
       </c>
       <c r="D8">
-        <v>0.1832850216513151</v>
+        <v>0.07522691502248335</v>
       </c>
       <c r="E8">
-        <v>0.04766301047072119</v>
+        <v>0.1047660465379021</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008282306331691136</v>
+        <v>0.002503302721253626</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6270004504194233</v>
+        <v>1.231721173026308</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8171105255417785</v>
+        <v>0.2981874034840928</v>
       </c>
       <c r="L8">
-        <v>0.1585833849556693</v>
+        <v>0.2156852695682048</v>
       </c>
       <c r="M8">
-        <v>0.1923065086012272</v>
+        <v>0.1527457198982134</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.719059217680751</v>
+        <v>4.975767661212217</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.163333610059908</v>
+        <v>0.5593538685816952</v>
       </c>
       <c r="C9">
-        <v>0.1368701494880469</v>
+        <v>0.1021533557518666</v>
       </c>
       <c r="D9">
-        <v>0.247795063699229</v>
+        <v>0.09311128709703098</v>
       </c>
       <c r="E9">
-        <v>0.04954570964727445</v>
+        <v>0.1041112720091206</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000817973191885403</v>
+        <v>0.00249684169707835</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6363204376463756</v>
+        <v>1.219020834769914</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.096880026172897</v>
+        <v>0.3792896902130849</v>
       </c>
       <c r="L9">
-        <v>0.1956381924385795</v>
+        <v>0.2228088706492883</v>
       </c>
       <c r="M9">
-        <v>0.2557860930857103</v>
+        <v>0.168815552137584</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.877419938658335</v>
+        <v>4.951617123272769</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.386090655306106</v>
+        <v>0.6204196022040662</v>
       </c>
       <c r="C10">
-        <v>0.1510698679564655</v>
+        <v>0.1069878730216516</v>
       </c>
       <c r="D10">
-        <v>0.2963553258747282</v>
+        <v>0.1064205225980572</v>
       </c>
       <c r="E10">
-        <v>0.05123546379696364</v>
+        <v>0.1038006199197632</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008108217165420812</v>
+        <v>0.00249253516640444</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6489277803219409</v>
+        <v>1.212180779913702</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.30445992313264</v>
+        <v>0.4390832307544201</v>
       </c>
       <c r="L10">
-        <v>0.224050013780257</v>
+        <v>0.2285429154188989</v>
       </c>
       <c r="M10">
-        <v>0.3033462820165269</v>
+        <v>0.1809538843428911</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.020892864521642</v>
+        <v>4.944928870895666</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.488273775585469</v>
+        <v>0.6483737320904197</v>
       </c>
       <c r="C11">
-        <v>0.1575542295056209</v>
+        <v>0.1091606435780363</v>
       </c>
       <c r="D11">
-        <v>0.3187758613715772</v>
+        <v>0.1125126523666182</v>
       </c>
       <c r="E11">
-        <v>0.05207744548465953</v>
+        <v>0.1036961301783119</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000807645102505919</v>
+        <v>0.00249067069495744</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6560729000990619</v>
+        <v>1.209609680974708</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.399553456181252</v>
+        <v>0.4663280485778216</v>
       </c>
       <c r="L11">
-        <v>0.237283463348831</v>
+        <v>0.2312597942434991</v>
       </c>
       <c r="M11">
-        <v>0.3252410262611818</v>
+        <v>0.1865473618504652</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.092906091652623</v>
+        <v>4.944287417110019</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.527110828446837</v>
+        <v>0.6589839929633854</v>
       </c>
       <c r="C12">
-        <v>0.1600147611455611</v>
+        <v>0.1099796098760351</v>
       </c>
       <c r="D12">
-        <v>0.3273201828823176</v>
+        <v>0.1148250184733683</v>
       </c>
       <c r="E12">
-        <v>0.05240741849600816</v>
+        <v>0.103661843551734</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008064526297046602</v>
+        <v>0.002489978198920868</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6589956571215936</v>
+        <v>1.208713764195743</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.435677784666495</v>
+        <v>0.4766510446440577</v>
       </c>
       <c r="L12">
-        <v>0.242343491089116</v>
+        <v>0.2323041526878029</v>
       </c>
       <c r="M12">
-        <v>0.33357444556313</v>
+        <v>0.1886756929216276</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.12122267272315</v>
+        <v>4.944389752327908</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.518739895093944</v>
+        <v>0.656697796044341</v>
       </c>
       <c r="C13">
-        <v>0.1594845924269777</v>
+        <v>0.1098034006122361</v>
       </c>
       <c r="D13">
-        <v>0.3254774906305329</v>
+        <v>0.1143267686888123</v>
       </c>
       <c r="E13">
-        <v>0.05233584791594659</v>
+        <v>0.1036689931284887</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008067089952592879</v>
+        <v>0.002490126739246719</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6583562962255698</v>
+        <v>1.208903260333045</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.427892355602154</v>
+        <v>0.4744275435992904</v>
       </c>
       <c r="L13">
-        <v>0.2412514792120533</v>
+        <v>0.2320785413804316</v>
       </c>
       <c r="M13">
-        <v>0.3317777262395154</v>
+        <v>0.1882168666745869</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.115076354649602</v>
+        <v>4.944352358457223</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.491465944942661</v>
+        <v>0.6492461538696546</v>
       </c>
       <c r="C14">
-        <v>0.1577565489239845</v>
+        <v>0.1092280969247241</v>
       </c>
       <c r="D14">
-        <v>0.319477682662324</v>
+        <v>0.1127027837844281</v>
       </c>
       <c r="E14">
-        <v>0.05210436591200107</v>
+        <v>0.103693203632611</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008075467911627617</v>
+        <v>0.002490613452092671</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6563089212074615</v>
+        <v>1.209534416184844</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.402523018501398</v>
+        <v>0.467177210304385</v>
       </c>
       <c r="L14">
-        <v>0.2376987503056682</v>
+        <v>0.2313454032161673</v>
       </c>
       <c r="M14">
-        <v>0.3259257424978514</v>
+        <v>0.1867222570627689</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.095214276289738</v>
+        <v>4.944288917344863</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.474779053415801</v>
+        <v>0.6446850008670708</v>
       </c>
       <c r="C15">
-        <v>0.1566987752603524</v>
+        <v>0.1088752097853103</v>
       </c>
       <c r="D15">
-        <v>0.3158098852183713</v>
+        <v>0.1117087501775842</v>
       </c>
       <c r="E15">
-        <v>0.05196404456827253</v>
+        <v>0.1037087206297151</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008080613074831223</v>
+        <v>0.002490913338989115</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.655083554699246</v>
+        <v>1.209931136029688</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.386999061766801</v>
+        <v>0.4627369376198658</v>
       </c>
       <c r="L15">
-        <v>0.2355290937456118</v>
+        <v>0.2308983563921885</v>
       </c>
       <c r="M15">
-        <v>0.3223469059333652</v>
+        <v>0.1858080910394762</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.083186867490554</v>
+        <v>4.944295017342824</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.37943155043962</v>
+        <v>0.6185962106653449</v>
       </c>
       <c r="C16">
-        <v>0.1506467225031116</v>
+        <v>0.1068453439483648</v>
       </c>
       <c r="D16">
-        <v>0.2948972950267716</v>
+        <v>0.1060231450987033</v>
       </c>
       <c r="E16">
-        <v>0.05118196306719014</v>
+        <v>0.1038081884035211</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008110308092339291</v>
+        <v>0.002492658911939582</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6484904007751311</v>
+        <v>1.212359681562894</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.298260291426146</v>
+        <v>0.4373035764968449</v>
       </c>
       <c r="L16">
-        <v>0.2231917594366308</v>
+        <v>0.2283675380646173</v>
       </c>
       <c r="M16">
-        <v>0.3019210519852251</v>
+        <v>0.1805897709131585</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.016328805968357</v>
+        <v>4.945019104385835</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.321170580176272</v>
+        <v>0.6026360328945088</v>
       </c>
       <c r="C17">
-        <v>0.1469413541762918</v>
+        <v>0.1055933005380325</v>
       </c>
       <c r="D17">
-        <v>0.2821572704603312</v>
+        <v>0.102544856508203</v>
       </c>
       <c r="E17">
-        <v>0.05072136505765101</v>
+        <v>0.103878630821022</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000812871729994451</v>
+        <v>0.002493753946444422</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6448166892235889</v>
+        <v>1.213987932215531</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.244005110271388</v>
+        <v>0.4217121186783572</v>
       </c>
       <c r="L17">
-        <v>0.2157053240251372</v>
+        <v>0.2268426946583872</v>
       </c>
       <c r="M17">
-        <v>0.2894603648277254</v>
+        <v>0.177406786180633</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.977094226852756</v>
+        <v>4.946078257226361</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.287739094444476</v>
+        <v>0.5934726661378704</v>
       </c>
       <c r="C18">
-        <v>0.1448123667206573</v>
+        <v>0.1048706667243522</v>
       </c>
       <c r="D18">
-        <v>0.2748602013860904</v>
+        <v>0.1005477853531005</v>
       </c>
       <c r="E18">
-        <v>0.05046330328477211</v>
+        <v>0.1039226146686509</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008139378282382123</v>
+        <v>0.002494392688298611</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.642835464120779</v>
+        <v>1.214975332127366</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.21286028302643</v>
+        <v>0.4127485317976038</v>
       </c>
       <c r="L18">
-        <v>0.2114281050722866</v>
+        <v>0.2259758547181008</v>
       </c>
       <c r="M18">
-        <v>0.2823173962866719</v>
+        <v>0.1755827716269351</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.955157649785974</v>
+        <v>4.946913455395247</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.276432687677499</v>
+        <v>0.5903729585726865</v>
       </c>
       <c r="C19">
-        <v>0.1440918704638534</v>
+        <v>0.1046255676371146</v>
       </c>
       <c r="D19">
-        <v>0.2723946090644347</v>
+        <v>0.09987222115461236</v>
       </c>
       <c r="E19">
-        <v>0.05037708916842654</v>
+        <v>0.1039381027824184</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008143000528264196</v>
+        <v>0.002494610487192784</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6421868728743476</v>
+        <v>1.215318386824691</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.20232515797818</v>
+        <v>0.4097143505690042</v>
       </c>
       <c r="L19">
-        <v>0.2099847262074235</v>
+        <v>0.2256841128676683</v>
       </c>
       <c r="M19">
-        <v>0.279902899226812</v>
+        <v>0.1749663549017981</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.94783628432404</v>
+        <v>4.94723505605657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.327364274217757</v>
+        <v>0.604333316662121</v>
       </c>
       <c r="C20">
-        <v>0.1473355546150685</v>
+        <v>0.1057268406201501</v>
       </c>
       <c r="D20">
-        <v>0.2835102482801659</v>
+        <v>0.1029147590960093</v>
       </c>
       <c r="E20">
-        <v>0.05076968214813071</v>
+        <v>0.1038707733641822</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008126750146161587</v>
+        <v>0.002493636456685169</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6451940214101981</v>
+        <v>1.213809337091547</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.24977418827936</v>
+        <v>0.4233714235542436</v>
       </c>
       <c r="L20">
-        <v>0.2164992582530942</v>
+        <v>0.2270039605951126</v>
       </c>
       <c r="M20">
-        <v>0.2907842976824497</v>
+        <v>0.1777449220885288</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.981205063872267</v>
+        <v>4.9459421185054</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.499472927460289</v>
+        <v>0.6514342173326781</v>
       </c>
       <c r="C21">
-        <v>0.1582639678966302</v>
+        <v>0.1093971811535397</v>
       </c>
       <c r="D21">
-        <v>0.3212384465156362</v>
+        <v>0.11317964081627</v>
       </c>
       <c r="E21">
-        <v>0.05217205073070552</v>
+        <v>0.1036859492002513</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008073004315931786</v>
+        <v>0.002490470125637119</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6569042747278786</v>
+        <v>1.20934692172235</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.409971342767449</v>
+        <v>0.4693066500892371</v>
       </c>
       <c r="L21">
-        <v>0.2387409115539327</v>
+        <v>0.2315603224962359</v>
       </c>
       <c r="M21">
-        <v>0.3276434202737377</v>
+        <v>0.1871609840879032</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.101019202828496</v>
+        <v>4.944298182070554</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.612797195391323</v>
+        <v>0.6823607467976274</v>
       </c>
       <c r="C22">
-        <v>0.1654365006837963</v>
+        <v>0.1117737220925221</v>
       </c>
       <c r="D22">
-        <v>0.3462150904619108</v>
+        <v>0.1199198552452003</v>
       </c>
       <c r="E22">
-        <v>0.05315377429248258</v>
+        <v>0.1035959331432466</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000803848398552172</v>
+        <v>0.002488479630645342</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6658301955451336</v>
+        <v>1.206883377590906</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.515346549271896</v>
+        <v>0.4993626104191549</v>
       </c>
       <c r="L22">
-        <v>0.2535638880199684</v>
+        <v>0.2346286940314997</v>
       </c>
       <c r="M22">
-        <v>0.3519824918221843</v>
+        <v>0.1933743439263154</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.185465670160852</v>
+        <v>4.945236082412066</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.552229790948957</v>
+        <v>0.6658417322196328</v>
       </c>
       <c r="C23">
-        <v>0.1616051021603511</v>
+        <v>0.1105073548055344</v>
       </c>
       <c r="D23">
-        <v>0.3328530581428595</v>
+        <v>0.1163195956806362</v>
       </c>
       <c r="E23">
-        <v>0.05262363848945384</v>
+        <v>0.1036411650314637</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008056854725391727</v>
+        <v>0.002489534798048216</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6609448099125075</v>
+        <v>1.208156782525961</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.459037213263741</v>
+        <v>0.4833181464590268</v>
       </c>
       <c r="L23">
-        <v>0.245624805311607</v>
+        <v>0.2329827821852888</v>
       </c>
       <c r="M23">
-        <v>0.3389676693072161</v>
+        <v>0.1900527550679101</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.139806250099696</v>
+        <v>4.944551391152828</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.324563908801537</v>
+        <v>0.6035659361568548</v>
       </c>
       <c r="C24">
-        <v>0.1471573327251434</v>
+        <v>0.1056664759250765</v>
       </c>
       <c r="D24">
-        <v>0.2828984823456437</v>
+        <v>0.1027475179029267</v>
       </c>
       <c r="E24">
-        <v>0.05074781703549469</v>
+        <v>0.1038743148623453</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008127639255382609</v>
+        <v>0.002493689545182114</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6450230230580516</v>
+        <v>1.213889920155935</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.247165842510611</v>
+        <v>0.4226212513234486</v>
       </c>
       <c r="L24">
-        <v>0.2161402373408805</v>
+        <v>0.2269310216957194</v>
       </c>
       <c r="M24">
-        <v>0.2901856830844096</v>
+        <v>0.1775920323789038</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.979344629310134</v>
+        <v>4.946002961966542</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.081927390845635</v>
+        <v>0.537024338077515</v>
       </c>
       <c r="C25">
-        <v>0.1316538479294209</v>
+        <v>0.1003495607393887</v>
       </c>
       <c r="D25">
-        <v>0.2301632385034935</v>
+        <v>0.08824348106851687</v>
       </c>
       <c r="E25">
-        <v>0.04898471187303599</v>
+        <v>0.1042584207893249</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000820678379009645</v>
+        <v>0.002498511920380854</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6328384419677207</v>
+        <v>1.222019079532402</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.020907359061056</v>
+        <v>0.357312121987519</v>
       </c>
       <c r="L25">
-        <v>0.1854213882889084</v>
+        <v>0.2207937531578352</v>
       </c>
       <c r="M25">
-        <v>0.238469871298058</v>
+        <v>0.1644097249493193</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.830088271892606</v>
+        <v>4.95620917005229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_199/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.488581626683299</v>
+        <v>0.9050814387850892</v>
       </c>
       <c r="C2">
-        <v>0.09635221466777466</v>
+        <v>0.1202570589958825</v>
       </c>
       <c r="D2">
-        <v>0.07767856683607022</v>
+        <v>0.1920894763992465</v>
       </c>
       <c r="E2">
-        <v>0.1046558067673296</v>
+        <v>0.04788997811710161</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002502358733471786</v>
+        <v>0.0008267665812575305</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.229678219994042</v>
+        <v>0.6276758643313727</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3093684014095288</v>
+        <v>0.8556043882160509</v>
       </c>
       <c r="L2">
-        <v>0.2166115354202276</v>
+        <v>0.1635828985273378</v>
       </c>
       <c r="M2">
-        <v>0.1549274488537939</v>
+        <v>0.200990485024036</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.971152512444831</v>
+        <v>2.738091349904948</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4561002489688519</v>
+        <v>0.7860329856308113</v>
       </c>
       <c r="C3">
-        <v>0.09359144670311537</v>
+        <v>0.1125220563124856</v>
       </c>
       <c r="D3">
-        <v>0.07058895358652251</v>
+        <v>0.1666513764994733</v>
       </c>
       <c r="E3">
-        <v>0.1049968585447729</v>
+        <v>0.04726560513836198</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002505151990921543</v>
+        <v>0.0008310648513222113</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.235913461079477</v>
+        <v>0.626333845860934</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2769684345009011</v>
+        <v>0.7440801338388212</v>
       </c>
       <c r="L3">
-        <v>0.213987690322476</v>
+        <v>0.1491992898755541</v>
       </c>
       <c r="M3">
-        <v>0.148641733463208</v>
+        <v>0.1758831748899361</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.985913092587481</v>
+        <v>2.685733519347394</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4363306699750069</v>
+        <v>0.7132345817578027</v>
       </c>
       <c r="C4">
-        <v>0.09187076005728301</v>
+        <v>0.107760397452715</v>
       </c>
       <c r="D4">
-        <v>0.06627036952073695</v>
+        <v>0.1511799664042854</v>
       </c>
       <c r="E4">
-        <v>0.1052417477820153</v>
+        <v>0.04693733927463839</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002506959422347355</v>
+        <v>0.0008337918969632327</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.240257398778358</v>
+        <v>0.6265066395176717</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2571214955987386</v>
+        <v>0.6757614711951163</v>
       </c>
       <c r="L4">
-        <v>0.2124806973957618</v>
+        <v>0.1405519331920289</v>
       </c>
       <c r="M4">
-        <v>0.1448520100549899</v>
+        <v>0.1605872806006126</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.997261807856091</v>
+        <v>2.658154092683191</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4283186876235163</v>
+        <v>0.6836303999932909</v>
       </c>
       <c r="C5">
-        <v>0.09116314243374291</v>
+        <v>0.1058159727547405</v>
       </c>
       <c r="D5">
-        <v>0.0645191829371754</v>
+        <v>0.1449079435705443</v>
       </c>
       <c r="E5">
-        <v>0.105350480245459</v>
+        <v>0.04681702299977886</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002507719259388627</v>
+        <v>0.0008349256966114455</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.242157258120027</v>
+        <v>0.6268183215469776</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2490458493446965</v>
+        <v>0.6479485470996309</v>
       </c>
       <c r="L5">
-        <v>0.2118928096694077</v>
+        <v>0.1370714755235483</v>
       </c>
       <c r="M5">
-        <v>0.1433253028421042</v>
+        <v>0.1543809780776044</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.002461410806632</v>
+        <v>2.648013974502504</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.426990993268447</v>
+        <v>0.6787180086470812</v>
       </c>
       <c r="C6">
-        <v>0.09104525521696871</v>
+        <v>0.1054928348752</v>
       </c>
       <c r="D6">
-        <v>0.06422892361102583</v>
+        <v>0.1438683286878444</v>
       </c>
       <c r="E6">
-        <v>0.1053690754944405</v>
+        <v>0.04679784583315971</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002507846838535132</v>
+        <v>0.0008351153339171691</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.242480561489227</v>
+        <v>0.62688438260491</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2477056390859644</v>
+        <v>0.6433315501467973</v>
       </c>
       <c r="L6">
-        <v>0.2117967769356923</v>
+        <v>0.1364960875894283</v>
       </c>
       <c r="M6">
-        <v>0.1430728624256048</v>
+        <v>0.1533519578289493</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.00335952883654</v>
+        <v>2.646395160660376</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.436222437621808</v>
+        <v>0.7128350961652643</v>
       </c>
       <c r="C7">
-        <v>0.091861242882878</v>
+        <v>0.1077341916565189</v>
       </c>
       <c r="D7">
-        <v>0.06624671729001363</v>
+        <v>0.1510952529999372</v>
       </c>
       <c r="E7">
-        <v>0.1052431779747796</v>
+        <v>0.04693566268582572</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002506969575313105</v>
+        <v>0.0008338070961236073</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.240282495855844</v>
+        <v>0.6265098781440912</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2570125349372034</v>
+        <v>0.6753862806548767</v>
       </c>
       <c r="L7">
-        <v>0.2124726626786568</v>
+        <v>0.1405048225034662</v>
       </c>
       <c r="M7">
-        <v>0.1448313488058979</v>
+        <v>0.1605034755544992</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.997329603528215</v>
+        <v>2.658012955097774</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4773461968112258</v>
+        <v>0.8639635458433759</v>
       </c>
       <c r="C8">
-        <v>0.0954056095900242</v>
+        <v>0.1175920235499461</v>
       </c>
       <c r="D8">
-        <v>0.07522691502248335</v>
+        <v>0.183285021651443</v>
       </c>
       <c r="E8">
-        <v>0.1047660465379021</v>
+        <v>0.04766301047071941</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002503302721253626</v>
+        <v>0.0008282306331091061</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.231721173026308</v>
+        <v>0.627000450419402</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2981874034840928</v>
+        <v>0.817110525541807</v>
       </c>
       <c r="L8">
-        <v>0.2156852695682048</v>
+        <v>0.1585833849556835</v>
       </c>
       <c r="M8">
-        <v>0.1527457198982134</v>
+        <v>0.1923065086012237</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.975767661212217</v>
+        <v>2.719059217680751</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5593538685816952</v>
+        <v>1.163333610059794</v>
       </c>
       <c r="C9">
-        <v>0.1021533557518666</v>
+        <v>0.1368701494881606</v>
       </c>
       <c r="D9">
-        <v>0.09311128709703098</v>
+        <v>0.2477950636992006</v>
       </c>
       <c r="E9">
-        <v>0.1041112720091206</v>
+        <v>0.04954570964725846</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00249684169707835</v>
+        <v>0.0008179731919134657</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.219020834769914</v>
+        <v>0.6363204376463614</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3792896902130849</v>
+        <v>1.096880026172983</v>
       </c>
       <c r="L9">
-        <v>0.2228088706492883</v>
+        <v>0.1956381924385653</v>
       </c>
       <c r="M9">
-        <v>0.168815552137584</v>
+        <v>0.2557860930857139</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.951617123272769</v>
+        <v>2.877419938658392</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6204196022040662</v>
+        <v>1.386090655306134</v>
       </c>
       <c r="C10">
-        <v>0.1069878730216516</v>
+        <v>0.1510698679565792</v>
       </c>
       <c r="D10">
-        <v>0.1064205225980572</v>
+        <v>0.2963553258747424</v>
       </c>
       <c r="E10">
-        <v>0.1038006199197632</v>
+        <v>0.05123546379696364</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00249253516640444</v>
+        <v>0.0008108217165719462</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.212180779913702</v>
+        <v>0.6489277803219551</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4390832307544201</v>
+        <v>1.304459923132669</v>
       </c>
       <c r="L10">
-        <v>0.2285429154188989</v>
+        <v>0.2240500137802712</v>
       </c>
       <c r="M10">
-        <v>0.1809538843428911</v>
+        <v>0.3033462820165411</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.944928870895666</v>
+        <v>3.020892864521699</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6483737320904197</v>
+        <v>1.488273775585327</v>
       </c>
       <c r="C11">
-        <v>0.1091606435780363</v>
+        <v>0.1575542295057346</v>
       </c>
       <c r="D11">
-        <v>0.1125126523666182</v>
+        <v>0.3187758613715772</v>
       </c>
       <c r="E11">
-        <v>0.1036961301783119</v>
+        <v>0.05207744548464355</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00249067069495744</v>
+        <v>0.0008076451024749367</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.209609680974708</v>
+        <v>0.6560729000990762</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4663280485778216</v>
+        <v>1.399553456181224</v>
       </c>
       <c r="L11">
-        <v>0.2312597942434991</v>
+        <v>0.2372834633490157</v>
       </c>
       <c r="M11">
-        <v>0.1865473618504652</v>
+        <v>0.3252410262611747</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.944287417110019</v>
+        <v>3.092906091652623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6589839929633854</v>
+        <v>1.527110828446666</v>
       </c>
       <c r="C12">
-        <v>0.1099796098760351</v>
+        <v>0.1600147611455327</v>
       </c>
       <c r="D12">
-        <v>0.1148250184733683</v>
+        <v>0.3273201828820334</v>
       </c>
       <c r="E12">
-        <v>0.103661843551734</v>
+        <v>0.05240741849594954</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002489978198920868</v>
+        <v>0.0008064526296701971</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.208713764195743</v>
+        <v>0.6589956571216291</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4766510446440577</v>
+        <v>1.435677784666382</v>
       </c>
       <c r="L12">
-        <v>0.2323041526878029</v>
+        <v>0.2423434910891302</v>
       </c>
       <c r="M12">
-        <v>0.1886756929216276</v>
+        <v>0.3335744455631229</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.944389752327908</v>
+        <v>3.121222672723206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.656697796044341</v>
+        <v>1.518739895093859</v>
       </c>
       <c r="C13">
-        <v>0.1098034006122361</v>
+        <v>0.1594845924269777</v>
       </c>
       <c r="D13">
-        <v>0.1143267686888123</v>
+        <v>0.3254774906304476</v>
       </c>
       <c r="E13">
-        <v>0.1036689931284887</v>
+        <v>0.05233584791590928</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002490126739246719</v>
+        <v>0.000806708995229177</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.208903260333045</v>
+        <v>0.6583562962255698</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4744275435992904</v>
+        <v>1.427892355602154</v>
       </c>
       <c r="L13">
-        <v>0.2320785413804316</v>
+        <v>0.2412514792119964</v>
       </c>
       <c r="M13">
-        <v>0.1882168666745869</v>
+        <v>0.3317777262395012</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.944352358457223</v>
+        <v>3.115076354649602</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6492461538696546</v>
+        <v>1.491465944942718</v>
       </c>
       <c r="C14">
-        <v>0.1092280969247241</v>
+        <v>0.1577565489239987</v>
       </c>
       <c r="D14">
-        <v>0.1127027837844281</v>
+        <v>0.319477682662523</v>
       </c>
       <c r="E14">
-        <v>0.103693203632611</v>
+        <v>0.05210436591198331</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002490613452092671</v>
+        <v>0.0008075467912517777</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.209534416184844</v>
+        <v>0.6563089212074757</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.467177210304385</v>
+        <v>1.402523018501398</v>
       </c>
       <c r="L14">
-        <v>0.2313454032161673</v>
+        <v>0.2376987503055972</v>
       </c>
       <c r="M14">
-        <v>0.1867222570627689</v>
+        <v>0.3259257424978443</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.944288917344863</v>
+        <v>3.095214276289795</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6446850008670708</v>
+        <v>1.474779053415801</v>
       </c>
       <c r="C15">
-        <v>0.1088752097853103</v>
+        <v>0.1566987752603524</v>
       </c>
       <c r="D15">
-        <v>0.1117087501775842</v>
+        <v>0.3158098852183429</v>
       </c>
       <c r="E15">
-        <v>0.1037087206297151</v>
+        <v>0.05196404456827075</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002490913338989115</v>
+        <v>0.0008080613074808814</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.209931136029688</v>
+        <v>0.6550835546992602</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4627369376198658</v>
+        <v>1.386999061766829</v>
       </c>
       <c r="L15">
-        <v>0.2308983563921885</v>
+        <v>0.2355290937455976</v>
       </c>
       <c r="M15">
-        <v>0.1858080910394762</v>
+        <v>0.3223469059333723</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.944295017342824</v>
+        <v>3.083186867490554</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6185962106653449</v>
+        <v>1.379431550439648</v>
       </c>
       <c r="C16">
-        <v>0.1068453439483648</v>
+        <v>0.1506467225031258</v>
       </c>
       <c r="D16">
-        <v>0.1060231450987033</v>
+        <v>0.294897295026658</v>
       </c>
       <c r="E16">
-        <v>0.1038081884035211</v>
+        <v>0.05118196306720613</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002492658911939582</v>
+        <v>0.0008110308092341388</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.212359681562894</v>
+        <v>0.6484904007751382</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4373035764968449</v>
+        <v>1.298260291426175</v>
       </c>
       <c r="L16">
-        <v>0.2283675380646173</v>
+        <v>0.2231917594365598</v>
       </c>
       <c r="M16">
-        <v>0.1805897709131585</v>
+        <v>0.3019210519852251</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.945019104385835</v>
+        <v>3.016328805968413</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6026360328945088</v>
+        <v>1.321170580176101</v>
       </c>
       <c r="C17">
-        <v>0.1055933005380325</v>
+        <v>0.1469413541759508</v>
       </c>
       <c r="D17">
-        <v>0.102544856508203</v>
+        <v>0.2821572704602175</v>
       </c>
       <c r="E17">
-        <v>0.103878630821022</v>
+        <v>0.05072136505768121</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002493753946444422</v>
+        <v>0.0008128717299930045</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.213987932215531</v>
+        <v>0.6448166892235818</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4217121186783572</v>
+        <v>1.244005110271388</v>
       </c>
       <c r="L17">
-        <v>0.2268426946583872</v>
+        <v>0.2157053240252367</v>
       </c>
       <c r="M17">
-        <v>0.177406786180633</v>
+        <v>0.2894603648277467</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.946078257226361</v>
+        <v>2.977094226852614</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5934726661378704</v>
+        <v>1.287739094444476</v>
       </c>
       <c r="C18">
-        <v>0.1048706667243522</v>
+        <v>0.1448123667205437</v>
       </c>
       <c r="D18">
-        <v>0.1005477853531005</v>
+        <v>0.2748602013860619</v>
       </c>
       <c r="E18">
-        <v>0.1039226146686509</v>
+        <v>0.05046330328477033</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002494392688298611</v>
+        <v>0.0008139378282375385</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.214975332127366</v>
+        <v>0.642835464120779</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4127485317976038</v>
+        <v>1.212860283026316</v>
       </c>
       <c r="L18">
-        <v>0.2259758547181008</v>
+        <v>0.211428105072315</v>
       </c>
       <c r="M18">
-        <v>0.1755827716269351</v>
+        <v>0.2823173962866719</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.946913455395247</v>
+        <v>2.955157649786031</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5903729585726865</v>
+        <v>1.276432687677527</v>
       </c>
       <c r="C19">
-        <v>0.1046255676371146</v>
+        <v>0.1440918704638392</v>
       </c>
       <c r="D19">
-        <v>0.09987222115461236</v>
+        <v>0.2723946090644489</v>
       </c>
       <c r="E19">
-        <v>0.1039381027824184</v>
+        <v>0.05037708916843009</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002494610487192784</v>
+        <v>0.000814300052856263</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.215318386824691</v>
+        <v>0.6421868728743689</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4097143505690042</v>
+        <v>1.202325157978123</v>
       </c>
       <c r="L19">
-        <v>0.2256841128676683</v>
+        <v>0.2099847262073808</v>
       </c>
       <c r="M19">
-        <v>0.1749663549017981</v>
+        <v>0.279902899226812</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.94723505605657</v>
+        <v>2.947836284324012</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.604333316662121</v>
+        <v>1.327364274217643</v>
       </c>
       <c r="C20">
-        <v>0.1057268406201501</v>
+        <v>0.1473355546154238</v>
       </c>
       <c r="D20">
-        <v>0.1029147590960093</v>
+        <v>0.283510248280308</v>
       </c>
       <c r="E20">
-        <v>0.1038707733641822</v>
+        <v>0.05076968214812894</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002493636456685169</v>
+        <v>0.0008126750146757827</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.213809337091547</v>
+        <v>0.6451940214101981</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4233714235542436</v>
+        <v>1.249774188279389</v>
       </c>
       <c r="L20">
-        <v>0.2270039605951126</v>
+        <v>0.2164992582531227</v>
       </c>
       <c r="M20">
-        <v>0.1777449220885288</v>
+        <v>0.2907842976824426</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.9459421185054</v>
+        <v>2.981205063872267</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6514342173326781</v>
+        <v>1.499472927460573</v>
       </c>
       <c r="C21">
-        <v>0.1093971811535397</v>
+        <v>0.1582639678967581</v>
       </c>
       <c r="D21">
-        <v>0.11317964081627</v>
+        <v>0.3212384465157356</v>
       </c>
       <c r="E21">
-        <v>0.1036859492002513</v>
+        <v>0.05217205073070552</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002490470125637119</v>
+        <v>0.0008073004316259177</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.20934692172235</v>
+        <v>0.6569042747278786</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4693066500892371</v>
+        <v>1.40997134276742</v>
       </c>
       <c r="L21">
-        <v>0.2315603224962359</v>
+        <v>0.2387409115539754</v>
       </c>
       <c r="M21">
-        <v>0.1871609840879032</v>
+        <v>0.3276434202737448</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.944298182070554</v>
+        <v>3.101019202828439</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6823607467976274</v>
+        <v>1.612797195391266</v>
       </c>
       <c r="C22">
-        <v>0.1117737220925221</v>
+        <v>0.1654365006837963</v>
       </c>
       <c r="D22">
-        <v>0.1199198552452003</v>
+        <v>0.3462150904620671</v>
       </c>
       <c r="E22">
-        <v>0.1035959331432466</v>
+        <v>0.05315377429249502</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002488479630645342</v>
+        <v>0.0008038483985455725</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.206883377590906</v>
+        <v>0.6658301955451407</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4993626104191549</v>
+        <v>1.51534654927184</v>
       </c>
       <c r="L22">
-        <v>0.2346286940314997</v>
+        <v>0.2535638880200111</v>
       </c>
       <c r="M22">
-        <v>0.1933743439263154</v>
+        <v>0.3519824918221985</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.945236082412066</v>
+        <v>3.185465670160937</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6658417322196328</v>
+        <v>1.552229790949013</v>
       </c>
       <c r="C23">
-        <v>0.1105073548055344</v>
+        <v>0.1616051021603653</v>
       </c>
       <c r="D23">
-        <v>0.1163195956806362</v>
+        <v>0.3328530581428879</v>
       </c>
       <c r="E23">
-        <v>0.1036411650314637</v>
+        <v>0.05262363848945384</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002489534798048216</v>
+        <v>0.0008056854725750845</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.208156782525961</v>
+        <v>0.6609448099125217</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4833181464590268</v>
+        <v>1.459037213263741</v>
       </c>
       <c r="L23">
-        <v>0.2329827821852888</v>
+        <v>0.2456248053116354</v>
       </c>
       <c r="M23">
-        <v>0.1900527550679101</v>
+        <v>0.3389676693072232</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.944551391152828</v>
+        <v>3.139806250099667</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6035659361568548</v>
+        <v>1.324563908801622</v>
       </c>
       <c r="C24">
-        <v>0.1056664759250765</v>
+        <v>0.1471573327254987</v>
       </c>
       <c r="D24">
-        <v>0.1027475179029267</v>
+        <v>0.2828984823456295</v>
       </c>
       <c r="E24">
-        <v>0.1038743148623453</v>
+        <v>0.05074781703549114</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002493689545182114</v>
+        <v>0.0008127639255686165</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.213889920155935</v>
+        <v>0.6450230230580658</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4226212513234486</v>
+        <v>1.247165842510498</v>
       </c>
       <c r="L24">
-        <v>0.2269310216957194</v>
+        <v>0.2161402373407952</v>
       </c>
       <c r="M24">
-        <v>0.1775920323789038</v>
+        <v>0.2901856830844096</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.946002961966542</v>
+        <v>2.979344629310106</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.537024338077515</v>
+        <v>1.081927390845607</v>
       </c>
       <c r="C25">
-        <v>0.1003495607393887</v>
+        <v>0.1316538479295346</v>
       </c>
       <c r="D25">
-        <v>0.08824348106851687</v>
+        <v>0.2301632385034509</v>
       </c>
       <c r="E25">
-        <v>0.1042584207893249</v>
+        <v>0.04898471187303777</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002498511920380854</v>
+        <v>0.0008206783789521151</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.222019079532402</v>
+        <v>0.6328384419677349</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.357312121987519</v>
+        <v>1.020907359060942</v>
       </c>
       <c r="L25">
-        <v>0.2207937531578352</v>
+        <v>0.1854213882889297</v>
       </c>
       <c r="M25">
-        <v>0.1644097249493193</v>
+        <v>0.2384698712980651</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.95620917005229</v>
+        <v>2.830088271892521</v>
       </c>
     </row>
   </sheetData>
